--- a/va_facility_data_2025-02-20/Cody VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cody%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cody VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cody%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra24a5585190d4abc99fdacfb2b107213"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R263987e66f5a418ca03122af2844f176"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R48b8b09e222e4ff0a37e8450f3a3b62c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rffb53282e3214cfd95db764b84b1ec54"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra45e5a89fd594bd4bfb71b8b93bbeb20"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2b6cb41d8ac847e58dffc3e7b80bd0cd"/>
   </x:sheets>
 </x:workbook>
 </file>
